--- a/covidnew_kr.xlsx
+++ b/covidnew_kr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="237">
   <si>
     <t>Confirmed</t>
   </si>
@@ -716,6 +716,15 @@
   </si>
   <si>
     <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C233"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,10 +1588,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>242</v>
+        <v>466</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1590,10 +1599,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>224</v>
+        <v>-224</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1601,10 +1610,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>-110</v>
+        <v>114</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3639,6 +3648,39 @@
         <v>109</v>
       </c>
       <c r="C233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>106</v>
+      </c>
+      <c r="C234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>113</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>153</v>
+      </c>
+      <c r="C236">
         <v>5</v>
       </c>
     </row>
